--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd14</t>
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.14149760935919</v>
+        <v>1.324656666666667</v>
       </c>
       <c r="H2">
-        <v>1.14149760935919</v>
+        <v>3.97397</v>
       </c>
       <c r="I2">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="J2">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.401300088170972</v>
+        <v>0.403827</v>
       </c>
       <c r="N2">
-        <v>0.401300088170972</v>
+        <v>1.211481</v>
       </c>
       <c r="O2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q2">
-        <v>0.4580830912827967</v>
+        <v>0.53493212773</v>
       </c>
       <c r="R2">
-        <v>0.4580830912827967</v>
+        <v>4.81438914957</v>
       </c>
       <c r="S2">
-        <v>2.060587070720802E-05</v>
+        <v>2.179714342672785E-05</v>
       </c>
       <c r="T2">
-        <v>2.060587070720802E-05</v>
+        <v>2.179714342672786E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.14149760935919</v>
+        <v>1.324656666666667</v>
       </c>
       <c r="H3">
-        <v>1.14149760935919</v>
+        <v>3.97397</v>
       </c>
       <c r="I3">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="J3">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>23.4340792702359</v>
+        <v>0.137516</v>
       </c>
       <c r="N3">
-        <v>23.4340792702359</v>
+        <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q3">
-        <v>26.74994546450803</v>
+        <v>0.1821614861733333</v>
       </c>
       <c r="R3">
-        <v>26.74994546450803</v>
+        <v>1.63945337556</v>
       </c>
       <c r="S3">
-        <v>0.001203288067505273</v>
+        <v>7.422623983710618E-06</v>
       </c>
       <c r="T3">
-        <v>0.001203288067505273</v>
+        <v>7.422623983710619E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.14149760935919</v>
+        <v>1.324656666666667</v>
       </c>
       <c r="H4">
-        <v>1.14149760935919</v>
+        <v>3.97397</v>
       </c>
       <c r="I4">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="J4">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.8685390322163</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N4">
-        <v>50.8685390322163</v>
+        <v>70.309682</v>
       </c>
       <c r="O4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q4">
-        <v>58.06631569686954</v>
+        <v>31.04539633083778</v>
       </c>
       <c r="R4">
-        <v>58.06631569686954</v>
+        <v>279.40856697754</v>
       </c>
       <c r="S4">
-        <v>0.002611986813010211</v>
+        <v>0.001265022086885082</v>
       </c>
       <c r="T4">
-        <v>0.002611986813010211</v>
+        <v>0.001265022086885082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.14149760935919</v>
+        <v>1.324656666666667</v>
       </c>
       <c r="H5">
-        <v>1.14149760935919</v>
+        <v>3.97397</v>
       </c>
       <c r="I5">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="J5">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.422104904506321</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N5">
-        <v>0.422104904506321</v>
+        <v>161.00704</v>
       </c>
       <c r="O5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q5">
-        <v>0.4818317393927546</v>
+        <v>71.09301630542222</v>
       </c>
       <c r="R5">
-        <v>0.4818317393927546</v>
+        <v>639.8371467488</v>
       </c>
       <c r="S5">
-        <v>2.167415194643557E-05</v>
+        <v>0.002896862223669136</v>
       </c>
       <c r="T5">
-        <v>2.167415194643557E-05</v>
+        <v>0.002896862223669137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>135.569176998339</v>
+        <v>1.324656666666667</v>
       </c>
       <c r="H6">
-        <v>135.569176998339</v>
+        <v>3.97397</v>
       </c>
       <c r="I6">
-        <v>0.4581398499311152</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="J6">
-        <v>0.4581398499311152</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.401300088170972</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N6">
-        <v>0.401300088170972</v>
+        <v>1.290893</v>
       </c>
       <c r="O6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q6">
-        <v>54.40392268269955</v>
+        <v>0.5699966728011111</v>
       </c>
       <c r="R6">
-        <v>54.40392268269955</v>
+        <v>5.12997005521</v>
       </c>
       <c r="S6">
-        <v>0.002447242035555896</v>
+        <v>2.322593575100146E-05</v>
       </c>
       <c r="T6">
-        <v>0.002447242035555896</v>
+        <v>2.322593575100146E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>135.569176998339</v>
+        <v>0.484797</v>
       </c>
       <c r="H7">
-        <v>135.569176998339</v>
+        <v>1.454391</v>
       </c>
       <c r="I7">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="J7">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4340792702359</v>
+        <v>0.403827</v>
       </c>
       <c r="N7">
-        <v>23.4340792702359</v>
+        <v>1.211481</v>
       </c>
       <c r="O7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q7">
-        <v>3176.938840379718</v>
+        <v>0.195774118119</v>
       </c>
       <c r="R7">
-        <v>3176.938840379718</v>
+        <v>1.761967063071</v>
       </c>
       <c r="S7">
-        <v>0.1429076781818127</v>
+        <v>7.977304616175298E-06</v>
       </c>
       <c r="T7">
-        <v>0.1429076781818127</v>
+        <v>7.9773046161753E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>135.569176998339</v>
+        <v>0.484797</v>
       </c>
       <c r="H8">
-        <v>135.569176998339</v>
+        <v>1.454391</v>
       </c>
       <c r="I8">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="J8">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>50.8685390322163</v>
+        <v>0.137516</v>
       </c>
       <c r="N8">
-        <v>50.8685390322163</v>
+        <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q8">
-        <v>6896.205971705447</v>
+        <v>0.06666734425199999</v>
       </c>
       <c r="R8">
-        <v>6896.205971705447</v>
+        <v>0.600006098268</v>
       </c>
       <c r="S8">
-        <v>0.3102108139929394</v>
+        <v>2.716527180198358E-06</v>
       </c>
       <c r="T8">
-        <v>0.3102108139929394</v>
+        <v>2.716527180198359E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>135.569176998339</v>
+        <v>0.484797</v>
       </c>
       <c r="H9">
-        <v>135.569176998339</v>
+        <v>1.454391</v>
       </c>
       <c r="I9">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="J9">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.422104904506321</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N9">
-        <v>0.422104904506321</v>
+        <v>70.309682</v>
       </c>
       <c r="O9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q9">
-        <v>57.22441451088442</v>
+        <v>11.361974301518</v>
       </c>
       <c r="R9">
-        <v>57.22441451088442</v>
+        <v>102.257768713662</v>
       </c>
       <c r="S9">
-        <v>0.002574115720807105</v>
+        <v>0.0004629719746165373</v>
       </c>
       <c r="T9">
-        <v>0.002574115720807105</v>
+        <v>0.0004629719746165374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>159.201538701672</v>
+        <v>0.484797</v>
       </c>
       <c r="H10">
-        <v>159.201538701672</v>
+        <v>1.454391</v>
       </c>
       <c r="I10">
-        <v>0.5380025951657157</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="J10">
-        <v>0.5380025951657157</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.401300088170972</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N10">
-        <v>0.401300088170972</v>
+        <v>161.00704</v>
       </c>
       <c r="O10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q10">
-        <v>63.88759151793539</v>
+        <v>26.01857665696</v>
       </c>
       <c r="R10">
-        <v>63.88759151793539</v>
+        <v>234.16718991264</v>
       </c>
       <c r="S10">
-        <v>0.00287384423408194</v>
+        <v>0.001060191784624539</v>
       </c>
       <c r="T10">
-        <v>0.00287384423408194</v>
+        <v>0.001060191784624539</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>159.201538701672</v>
+        <v>0.484797</v>
       </c>
       <c r="H11">
-        <v>159.201538701672</v>
+        <v>1.454391</v>
       </c>
       <c r="I11">
-        <v>0.5380025951657157</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="J11">
-        <v>0.5380025951657157</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.4340792702359</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N11">
-        <v>23.4340792702359</v>
+        <v>1.290893</v>
       </c>
       <c r="O11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q11">
-        <v>3730.741477878511</v>
+        <v>0.208607017907</v>
       </c>
       <c r="R11">
-        <v>3730.741477878511</v>
+        <v>1.877463161163</v>
       </c>
       <c r="S11">
-        <v>0.1678192843134741</v>
+        <v>8.500213117571286E-06</v>
       </c>
       <c r="T11">
-        <v>0.1678192843134741</v>
+        <v>8.500213117571288E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>159.201538701672</v>
+        <v>139.106753</v>
       </c>
       <c r="H12">
-        <v>159.201538701672</v>
+        <v>417.320259</v>
       </c>
       <c r="I12">
-        <v>0.5380025951657157</v>
+        <v>0.442561290808761</v>
       </c>
       <c r="J12">
-        <v>0.5380025951657157</v>
+        <v>0.4425612908087611</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.8685390322163</v>
+        <v>0.403827</v>
       </c>
       <c r="N12">
-        <v>50.8685390322163</v>
+        <v>1.211481</v>
       </c>
       <c r="O12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q12">
-        <v>8098.349685434896</v>
+        <v>56.175062743731</v>
       </c>
       <c r="R12">
-        <v>8098.349685434896</v>
+        <v>505.575564693579</v>
       </c>
       <c r="S12">
-        <v>0.3642866321315736</v>
+        <v>0.002288993007069056</v>
       </c>
       <c r="T12">
-        <v>0.3642866321315736</v>
+        <v>0.002288993007069056</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>139.106753</v>
+      </c>
+      <c r="H13">
+        <v>417.320259</v>
+      </c>
+      <c r="I13">
+        <v>0.442561290808761</v>
+      </c>
+      <c r="J13">
+        <v>0.4425612908087611</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.137516</v>
+      </c>
+      <c r="N13">
+        <v>0.412548</v>
+      </c>
+      <c r="O13">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P13">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q13">
+        <v>19.129404245548</v>
+      </c>
+      <c r="R13">
+        <v>172.164638209932</v>
+      </c>
+      <c r="S13">
+        <v>0.0007794752761952725</v>
+      </c>
+      <c r="T13">
+        <v>0.0007794752761952726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>139.106753</v>
+      </c>
+      <c r="H14">
+        <v>417.320259</v>
+      </c>
+      <c r="I14">
+        <v>0.442561290808761</v>
+      </c>
+      <c r="J14">
+        <v>0.4425612908087611</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N14">
+        <v>70.309682</v>
+      </c>
+      <c r="O14">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P14">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q14">
+        <v>3260.183855827515</v>
+      </c>
+      <c r="R14">
+        <v>29341.65470244763</v>
+      </c>
+      <c r="S14">
+        <v>0.1328443206515406</v>
+      </c>
+      <c r="T14">
+        <v>0.1328443206515406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>139.106753</v>
+      </c>
+      <c r="H15">
+        <v>417.320259</v>
+      </c>
+      <c r="I15">
+        <v>0.442561290808761</v>
+      </c>
+      <c r="J15">
+        <v>0.4425612908087611</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N15">
+        <v>161.00704</v>
+      </c>
+      <c r="O15">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P15">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q15">
+        <v>7465.722181513707</v>
+      </c>
+      <c r="R15">
+        <v>67191.49963362336</v>
+      </c>
+      <c r="S15">
+        <v>0.3042094664702854</v>
+      </c>
+      <c r="T15">
+        <v>0.3042094664702854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>159.201538701672</v>
-      </c>
-      <c r="H13">
-        <v>159.201538701672</v>
-      </c>
-      <c r="I13">
-        <v>0.5380025951657157</v>
-      </c>
-      <c r="J13">
-        <v>0.5380025951657157</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="N13">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="O13">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="P13">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="Q13">
-        <v>67.19975029092863</v>
-      </c>
-      <c r="R13">
-        <v>67.19975029092863</v>
-      </c>
-      <c r="S13">
-        <v>0.003022834486585955</v>
-      </c>
-      <c r="T13">
-        <v>0.003022834486585955</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>139.106753</v>
+      </c>
+      <c r="H16">
+        <v>417.320259</v>
+      </c>
+      <c r="I16">
+        <v>0.442561290808761</v>
+      </c>
+      <c r="J16">
+        <v>0.4425612908087611</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.290893</v>
+      </c>
+      <c r="O16">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P16">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q16">
+        <v>59.85731123347634</v>
+      </c>
+      <c r="R16">
+        <v>538.715801101287</v>
+      </c>
+      <c r="S16">
+        <v>0.00243903540367071</v>
+      </c>
+      <c r="T16">
+        <v>0.00243903540367071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>173.3336436666667</v>
+      </c>
+      <c r="H17">
+        <v>520.000931</v>
+      </c>
+      <c r="I17">
+        <v>0.5514524595488605</v>
+      </c>
+      <c r="J17">
+        <v>0.5514524595488606</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.403827</v>
+      </c>
+      <c r="N17">
+        <v>1.211481</v>
+      </c>
+      <c r="O17">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P17">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q17">
+        <v>69.99680532097901</v>
+      </c>
+      <c r="R17">
+        <v>629.971247888811</v>
+      </c>
+      <c r="S17">
+        <v>0.002852194373646257</v>
+      </c>
+      <c r="T17">
+        <v>0.002852194373646257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>173.3336436666667</v>
+      </c>
+      <c r="H18">
+        <v>520.000931</v>
+      </c>
+      <c r="I18">
+        <v>0.5514524595488605</v>
+      </c>
+      <c r="J18">
+        <v>0.5514524595488606</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.137516</v>
+      </c>
+      <c r="N18">
+        <v>0.412548</v>
+      </c>
+      <c r="O18">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P18">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q18">
+        <v>23.83614934246534</v>
+      </c>
+      <c r="R18">
+        <v>214.525344082188</v>
+      </c>
+      <c r="S18">
+        <v>0.0009712633416941876</v>
+      </c>
+      <c r="T18">
+        <v>0.0009712633416941878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>173.3336436666667</v>
+      </c>
+      <c r="H19">
+        <v>520.000931</v>
+      </c>
+      <c r="I19">
+        <v>0.5514524595488605</v>
+      </c>
+      <c r="J19">
+        <v>0.5514524595488606</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N19">
+        <v>70.309682</v>
+      </c>
+      <c r="O19">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P19">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q19">
+        <v>4062.344455368216</v>
+      </c>
+      <c r="R19">
+        <v>36561.10009831395</v>
+      </c>
+      <c r="S19">
+        <v>0.1655303545109313</v>
+      </c>
+      <c r="T19">
+        <v>0.1655303545109313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>173.3336436666667</v>
+      </c>
+      <c r="H20">
+        <v>520.000931</v>
+      </c>
+      <c r="I20">
+        <v>0.5514524595488605</v>
+      </c>
+      <c r="J20">
+        <v>0.5514524595488606</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N20">
+        <v>161.00704</v>
+      </c>
+      <c r="O20">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P20">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q20">
+        <v>9302.645633061584</v>
+      </c>
+      <c r="R20">
+        <v>83723.81069755426</v>
+      </c>
+      <c r="S20">
+        <v>0.3790594929721868</v>
+      </c>
+      <c r="T20">
+        <v>0.3790594929721869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>173.3336436666667</v>
+      </c>
+      <c r="H21">
+        <v>520.000931</v>
+      </c>
+      <c r="I21">
+        <v>0.5514524595488605</v>
+      </c>
+      <c r="J21">
+        <v>0.5514524595488606</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.290893</v>
+      </c>
+      <c r="O21">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P21">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q21">
+        <v>74.58506242459812</v>
+      </c>
+      <c r="R21">
+        <v>671.2655618213831</v>
+      </c>
+      <c r="S21">
+        <v>0.003039154350401977</v>
+      </c>
+      <c r="T21">
+        <v>0.003039154350401977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.07215633333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.216469</v>
+      </c>
+      <c r="I22">
+        <v>0.0002295618245077378</v>
+      </c>
+      <c r="J22">
+        <v>0.0002295618245077379</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.403827</v>
+      </c>
+      <c r="N22">
+        <v>1.211481</v>
+      </c>
+      <c r="O22">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P22">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q22">
+        <v>0.029138675621</v>
+      </c>
+      <c r="R22">
+        <v>0.262248080589</v>
+      </c>
+      <c r="S22">
+        <v>1.187327997050897E-06</v>
+      </c>
+      <c r="T22">
+        <v>1.187327997050897E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.07215633333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.216469</v>
+      </c>
+      <c r="I23">
+        <v>0.0002295618245077378</v>
+      </c>
+      <c r="J23">
+        <v>0.0002295618245077379</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.137516</v>
+      </c>
+      <c r="N23">
+        <v>0.412548</v>
+      </c>
+      <c r="O23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q23">
+        <v>0.009922650334666668</v>
+      </c>
+      <c r="R23">
+        <v>0.08930385301200001</v>
+      </c>
+      <c r="S23">
+        <v>4.043231305545472E-07</v>
+      </c>
+      <c r="T23">
+        <v>4.043231305545473E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.07215633333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.216469</v>
+      </c>
+      <c r="I24">
+        <v>0.0002295618245077378</v>
+      </c>
+      <c r="J24">
+        <v>0.0002295618245077379</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N24">
+        <v>70.309682</v>
+      </c>
+      <c r="O24">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P24">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q24">
+        <v>1.691096283650889</v>
+      </c>
+      <c r="R24">
+        <v>15.219866552858</v>
+      </c>
+      <c r="S24">
+        <v>6.890793491796032E-05</v>
+      </c>
+      <c r="T24">
+        <v>6.890793491796033E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07215633333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.216469</v>
+      </c>
+      <c r="I25">
+        <v>0.0002295618245077378</v>
+      </c>
+      <c r="J25">
+        <v>0.0002295618245077379</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N25">
+        <v>161.00704</v>
+      </c>
+      <c r="O25">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P25">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q25">
+        <v>3.872559215751112</v>
+      </c>
+      <c r="R25">
+        <v>34.85303294176001</v>
+      </c>
+      <c r="S25">
+        <v>0.0001577970816829101</v>
+      </c>
+      <c r="T25">
+        <v>0.0001577970816829101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.07215633333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.216469</v>
+      </c>
+      <c r="I26">
+        <v>0.0002295618245077378</v>
+      </c>
+      <c r="J26">
+        <v>0.0002295618245077379</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.290893</v>
+      </c>
+      <c r="O26">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P26">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q26">
+        <v>0.03104870186855556</v>
+      </c>
+      <c r="R26">
+        <v>0.279438316817</v>
+      </c>
+      <c r="S26">
+        <v>1.265156779261931E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.265156779261931E-06</v>
       </c>
     </row>
   </sheetData>
